--- a/Collections/Украина/Украина погодовка 1991-н.в..xlsx
+++ b/Collections/Украина/Украина погодовка 1991-н.в..xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21723"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_F52D68D803CAE8F4ABA76D77451254FCC4420796" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\Украина\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Погодовка 1992-2016" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -58,8 +62,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -488,24 +492,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27:XFD27"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="8" width="8" customWidth="1"/>
     <col min="9" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" customHeight="1">
+    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1">
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1992</v>
       </c>
@@ -560,7 +564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1993</v>
       </c>
@@ -586,7 +590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1994</v>
       </c>
@@ -612,7 +616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1">
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1995</v>
       </c>
@@ -638,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1">
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1996</v>
       </c>
@@ -664,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1">
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2000</v>
       </c>
@@ -690,7 +694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1">
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2001</v>
       </c>
@@ -716,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2002</v>
       </c>
@@ -742,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1">
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2003</v>
       </c>
@@ -768,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1">
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2004</v>
       </c>
@@ -794,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1">
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2005</v>
       </c>
@@ -802,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -820,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1">
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2006</v>
       </c>
@@ -846,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1">
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2007</v>
       </c>
@@ -872,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1">
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2008</v>
       </c>
@@ -898,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1">
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2009</v>
       </c>
@@ -924,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1">
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2010</v>
       </c>
@@ -950,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1">
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2011</v>
       </c>
@@ -976,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1">
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2012</v>
       </c>
@@ -1002,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="12.75" customHeight="1">
+    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2013</v>
       </c>
@@ -1028,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="12.75" customHeight="1">
+    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2014</v>
       </c>
@@ -1054,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="12.75" customHeight="1">
+    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2015</v>
       </c>
@@ -1080,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="12.75" customHeight="1">
+    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2016</v>
       </c>
@@ -1106,14 +1110,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="12.75" customHeight="1">
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2017</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="12.75" customHeight="1">
+    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2018</v>
       </c>
@@ -1126,11 +1130,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="12.75" customHeight="1">
+    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:9" ht="12.75" customHeight="1">
+    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
